--- a/xlsx/country_comparison/support_likert_positive.xlsx
+++ b/xlsx/country_comparison/support_likert_positive.xlsx
@@ -69,10 +69,10 @@
 (US) / €100 million (Eu) for each human</t>
   </si>
   <si>
-    <t xml:space="preserve">National tax on millionaires funding public services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+    <t xml:space="preserve">National tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.409115346811486</v>
+        <v>0.409115351906478</v>
       </c>
       <c r="C2" t="n">
         <v>0.535873014459192</v>
@@ -455,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.53081419263325</v>
+        <v>0.530814200731826</v>
       </c>
       <c r="C3" t="n">
         <v>0.646086050975591</v>
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.45011340420921</v>
+        <v>0.45011341124838</v>
       </c>
       <c r="C4" t="n">
         <v>0.580303842050924</v>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.308391076954102</v>
+        <v>0.308391082895318</v>
       </c>
       <c r="C5" t="n">
         <v>0.365731640324952</v>
@@ -524,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3441053797594</v>
+        <v>0.344105383530252</v>
       </c>
       <c r="C6" t="n">
         <v>0.443594773467438</v>
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.390484602228333</v>
+        <v>0.390484602243659</v>
       </c>
       <c r="C7" t="n">
         <v>0.49094991581821</v>
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.41536013985638</v>
+        <v>0.415360140801995</v>
       </c>
       <c r="C8" t="n">
         <v>0.547947048183082</v>
@@ -593,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.441485472151688</v>
+        <v>0.44148547521565</v>
       </c>
       <c r="C9" t="n">
         <v>0.699336514515305</v>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335948876827959</v>
+        <v>0.335948883448662</v>
       </c>
       <c r="C10" t="n">
         <v>0.45314379468064</v>
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.619576204293734</v>
+        <v>0.619576204238963</v>
       </c>
       <c r="C11" t="n">
         <v>0.758375208534753</v>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.580974048697037</v>
+        <v>0.58097404887994</v>
       </c>
       <c r="C12" t="n">
         <v>0.714793319488843</v>
